--- a/PCB/BOM_Rev2.xlsx
+++ b/PCB/BOM_Rev2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcb7e34ab32489e6/Arduino_PCB/ESP32-S3/ESP32-S3_Non_Touch_Particle_CO2/Project Outputs for Rev2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcb7e34ab32489e6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{617FDBD9-547B-458F-AA37-0C5E69A9E7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1800539-F0FC-4CE4-B049-0E8F2C8A4BEA}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{617FDBD9-547B-458F-AA37-0C5E69A9E7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B432AE-5FE5-4E83-9CBF-2782C8AF8E01}"/>
   <bookViews>
-    <workbookView xWindow="32550" yWindow="705" windowWidth="21210" windowHeight="14520" xr2:uid="{8726F5C0-DD49-4D3D-A5CA-7D95293EF14A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{8726F5C0-DD49-4D3D-A5CA-7D95293EF14A}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Rev2" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>SHT40-CD1B-R3</t>
-  </si>
-  <si>
     <t>Sensor Humidity/Temperature I2C SMD</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>1.65 INCH TFT SPI GLASS Non Touch</t>
+  </si>
+  <si>
+    <t>SHT40-AD1B-R3</t>
   </si>
 </sst>
 </file>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD211A92-BE39-4768-A18C-E4A25CAD7324}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,39 +1263,39 @@
         <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
